--- a/modelos/OBACON4426052/OBACON4426052_Sell in_metricas.xlsx
+++ b/modelos/OBACON4426052/OBACON4426052_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44649</v>
       </c>
       <c r="B2" t="n">
-        <v>85.8768219765862</v>
+        <v>85.87682197668063</v>
       </c>
       <c r="C2" t="n">
-        <v>34.55309583494405</v>
+        <v>35.92153808624197</v>
       </c>
       <c r="D2" t="n">
-        <v>135.4658066885695</v>
+        <v>135.2517001383573</v>
       </c>
       <c r="E2" t="n">
         <v>84</v>
@@ -496,13 +496,13 @@
         <v>44656</v>
       </c>
       <c r="B3" t="n">
-        <v>85.64149349619206</v>
+        <v>85.641493496138</v>
       </c>
       <c r="C3" t="n">
-        <v>38.4777294219854</v>
+        <v>34.76063439564398</v>
       </c>
       <c r="D3" t="n">
-        <v>135.2868136067993</v>
+        <v>131.6132306752286</v>
       </c>
       <c r="E3" t="n">
         <v>96</v>
@@ -516,13 +516,13 @@
         <v>44663</v>
       </c>
       <c r="B4" t="n">
-        <v>138.6829639961169</v>
+        <v>138.6829884001202</v>
       </c>
       <c r="C4" t="n">
-        <v>88.7901110217618</v>
+        <v>91.3566816959928</v>
       </c>
       <c r="D4" t="n">
-        <v>184.6765793851009</v>
+        <v>186.0067303039176</v>
       </c>
       <c r="E4" t="n">
         <v>84</v>
@@ -536,13 +536,13 @@
         <v>44670</v>
       </c>
       <c r="B5" t="n">
-        <v>174.8927686133251</v>
+        <v>174.8927683708286</v>
       </c>
       <c r="C5" t="n">
-        <v>124.5564752926932</v>
+        <v>123.7143751064617</v>
       </c>
       <c r="D5" t="n">
-        <v>220.862357846448</v>
+        <v>223.4259100016214</v>
       </c>
       <c r="E5" t="n">
         <v>180</v>
@@ -556,13 +556,13 @@
         <v>44684</v>
       </c>
       <c r="B6" t="n">
-        <v>163.8221479572639</v>
+        <v>163.8221479572626</v>
       </c>
       <c r="C6" t="n">
-        <v>118.2061298782821</v>
+        <v>117.937364827457</v>
       </c>
       <c r="D6" t="n">
-        <v>211.2765969170615</v>
+        <v>211.5369407699588</v>
       </c>
       <c r="E6" t="n">
         <v>216</v>
@@ -576,13 +576,13 @@
         <v>44691</v>
       </c>
       <c r="B7" t="n">
-        <v>124.3050030361652</v>
+        <v>124.3050030357119</v>
       </c>
       <c r="C7" t="n">
-        <v>76.56002171884795</v>
+        <v>76.65936220175672</v>
       </c>
       <c r="D7" t="n">
-        <v>174.5729196855929</v>
+        <v>169.170252946415</v>
       </c>
       <c r="E7" t="n">
         <v>132</v>
@@ -596,13 +596,13 @@
         <v>44698</v>
       </c>
       <c r="B8" t="n">
-        <v>73.1139196799847</v>
+        <v>73.11391967998729</v>
       </c>
       <c r="C8" t="n">
-        <v>29.73660622214749</v>
+        <v>21.60480688514174</v>
       </c>
       <c r="D8" t="n">
-        <v>120.1654551232042</v>
+        <v>120.7099446750103</v>
       </c>
       <c r="E8" t="n">
         <v>72</v>
@@ -616,13 +616,13 @@
         <v>44705</v>
       </c>
       <c r="B9" t="n">
-        <v>50.95958818628223</v>
+        <v>50.95958828780947</v>
       </c>
       <c r="C9" t="n">
-        <v>2.718740305108029</v>
+        <v>4.246101933778789</v>
       </c>
       <c r="D9" t="n">
-        <v>97.27382565732373</v>
+        <v>100.6067027876134</v>
       </c>
       <c r="E9" t="n">
         <v>24</v>
@@ -636,13 +636,13 @@
         <v>44712</v>
       </c>
       <c r="B10" t="n">
-        <v>50.08040528219789</v>
+        <v>50.08040519898903</v>
       </c>
       <c r="C10" t="n">
-        <v>3.49388679003354</v>
+        <v>-2.255752781361386</v>
       </c>
       <c r="D10" t="n">
-        <v>101.0835356306345</v>
+        <v>99.4640109970648</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
@@ -656,13 +656,13 @@
         <v>44715</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.8406210767211491</v>
+        <v>-0.8406210767229751</v>
       </c>
       <c r="C11" t="n">
-        <v>-48.01478515420352</v>
+        <v>-49.55561374683462</v>
       </c>
       <c r="D11" t="n">
-        <v>47.46817052105902</v>
+        <v>45.87114218144529</v>
       </c>
       <c r="E11" t="n">
         <v>12</v>
@@ -676,13 +676,13 @@
         <v>44719</v>
       </c>
       <c r="B12" t="n">
-        <v>55.80330522990151</v>
+        <v>55.80330522989967</v>
       </c>
       <c r="C12" t="n">
-        <v>9.286010921186433</v>
+        <v>9.077524125820249</v>
       </c>
       <c r="D12" t="n">
-        <v>101.1240219949972</v>
+        <v>101.4098669865877</v>
       </c>
       <c r="E12" t="n">
         <v>24</v>
@@ -696,13 +696,13 @@
         <v>44726</v>
       </c>
       <c r="B13" t="n">
-        <v>61.32064762782517</v>
+        <v>61.32064759757174</v>
       </c>
       <c r="C13" t="n">
-        <v>15.204545366465</v>
+        <v>15.30353769638585</v>
       </c>
       <c r="D13" t="n">
-        <v>106.2118535734152</v>
+        <v>109.4101566391729</v>
       </c>
       <c r="E13" t="n">
         <v>36</v>
@@ -719,10 +719,10 @@
         <v>59.20422662116182</v>
       </c>
       <c r="C14" t="n">
-        <v>14.97080249520119</v>
+        <v>12.65706290987723</v>
       </c>
       <c r="D14" t="n">
-        <v>107.5539315064023</v>
+        <v>106.9601539561139</v>
       </c>
       <c r="E14" t="n">
         <v>48</v>
@@ -736,13 +736,13 @@
         <v>44740</v>
       </c>
       <c r="B15" t="n">
-        <v>53.88971295383149</v>
+        <v>53.88971293401943</v>
       </c>
       <c r="C15" t="n">
-        <v>10.77552269677825</v>
+        <v>8.52499770650139</v>
       </c>
       <c r="D15" t="n">
-        <v>100.8511662375354</v>
+        <v>99.98174372624365</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
@@ -756,13 +756,13 @@
         <v>44747</v>
       </c>
       <c r="B16" t="n">
-        <v>39.69748579169139</v>
+        <v>39.69748579257279</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.332234356480051</v>
+        <v>-8.777473361425677</v>
       </c>
       <c r="D16" t="n">
-        <v>85.37061991973354</v>
+        <v>83.78243876594961</v>
       </c>
       <c r="E16" t="n">
         <v>60</v>
@@ -776,13 +776,13 @@
         <v>44754</v>
       </c>
       <c r="B17" t="n">
-        <v>36.39924402132694</v>
+        <v>36.39924402124988</v>
       </c>
       <c r="C17" t="n">
-        <v>-9.316176469812291</v>
+        <v>-10.96286315865982</v>
       </c>
       <c r="D17" t="n">
-        <v>84.97723750467053</v>
+        <v>83.74080144654523</v>
       </c>
       <c r="E17" t="n">
         <v>84</v>
@@ -796,13 +796,13 @@
         <v>44761</v>
       </c>
       <c r="B18" t="n">
-        <v>51.10022974688698</v>
+        <v>51.10022974691868</v>
       </c>
       <c r="C18" t="n">
-        <v>3.628617616753117</v>
+        <v>4.889077556106711</v>
       </c>
       <c r="D18" t="n">
-        <v>97.37241998979303</v>
+        <v>97.59025303938107</v>
       </c>
       <c r="E18" t="n">
         <v>36</v>
@@ -816,13 +816,13 @@
         <v>44768</v>
       </c>
       <c r="B19" t="n">
-        <v>67.43184063439983</v>
+        <v>67.43184063440779</v>
       </c>
       <c r="C19" t="n">
-        <v>22.37377648658176</v>
+        <v>17.44151025341848</v>
       </c>
       <c r="D19" t="n">
-        <v>113.8311950046374</v>
+        <v>114.7903830318447</v>
       </c>
       <c r="E19" t="n">
         <v>60</v>
@@ -836,13 +836,13 @@
         <v>44775</v>
       </c>
       <c r="B20" t="n">
-        <v>93.65091520157338</v>
+        <v>93.65091520157392</v>
       </c>
       <c r="C20" t="n">
-        <v>49.40663000874958</v>
+        <v>48.74918893184442</v>
       </c>
       <c r="D20" t="n">
-        <v>140.965476141996</v>
+        <v>137.9695328939055</v>
       </c>
       <c r="E20" t="n">
         <v>36</v>
@@ -856,13 +856,13 @@
         <v>44782</v>
       </c>
       <c r="B21" t="n">
-        <v>97.86916543393413</v>
+        <v>97.86916543393414</v>
       </c>
       <c r="C21" t="n">
-        <v>51.68182429119125</v>
+        <v>53.83824295086468</v>
       </c>
       <c r="D21" t="n">
-        <v>140.0070094771127</v>
+        <v>143.849127506457</v>
       </c>
       <c r="E21" t="n">
         <v>60</v>
@@ -876,13 +876,13 @@
         <v>44789</v>
       </c>
       <c r="B22" t="n">
-        <v>87.33337521766077</v>
+        <v>87.33337521766023</v>
       </c>
       <c r="C22" t="n">
-        <v>41.64616861479572</v>
+        <v>41.30419097426245</v>
       </c>
       <c r="D22" t="n">
-        <v>135.3809329883084</v>
+        <v>133.7551334821828</v>
       </c>
       <c r="E22" t="n">
         <v>60</v>
@@ -896,13 +896,13 @@
         <v>44796</v>
       </c>
       <c r="B23" t="n">
-        <v>68.54691188962605</v>
+        <v>68.54691188962606</v>
       </c>
       <c r="C23" t="n">
-        <v>26.01329840986824</v>
+        <v>25.18849317973276</v>
       </c>
       <c r="D23" t="n">
-        <v>113.3198843268274</v>
+        <v>112.771803543413</v>
       </c>
       <c r="E23" t="n">
         <v>84</v>
@@ -916,13 +916,13 @@
         <v>44803</v>
       </c>
       <c r="B24" t="n">
-        <v>62.06112229161004</v>
+        <v>62.06112229161003</v>
       </c>
       <c r="C24" t="n">
-        <v>18.60600010236293</v>
+        <v>15.58228398385973</v>
       </c>
       <c r="D24" t="n">
-        <v>107.8392729497741</v>
+        <v>106.6913595417027</v>
       </c>
       <c r="E24" t="n">
         <v>84</v>
@@ -939,10 +939,10 @@
         <v>19.34133033908606</v>
       </c>
       <c r="C25" t="n">
-        <v>-26.8119561096829</v>
+        <v>-27.45869442314808</v>
       </c>
       <c r="D25" t="n">
-        <v>66.44171186099751</v>
+        <v>63.74979639153378</v>
       </c>
       <c r="E25" t="n">
         <v>72</v>
@@ -959,10 +959,10 @@
         <v>69.11138833962721</v>
       </c>
       <c r="C26" t="n">
-        <v>23.93680311672043</v>
+        <v>22.21919469271824</v>
       </c>
       <c r="D26" t="n">
-        <v>114.8999448410368</v>
+        <v>112.6718410197589</v>
       </c>
       <c r="E26" t="n">
         <v>60</v>
@@ -976,13 +976,13 @@
         <v>44817</v>
       </c>
       <c r="B27" t="n">
-        <v>85.65790282206319</v>
+        <v>85.65790282206318</v>
       </c>
       <c r="C27" t="n">
-        <v>40.3600703195275</v>
+        <v>42.783536748172</v>
       </c>
       <c r="D27" t="n">
-        <v>130.2429714228583</v>
+        <v>135.1694624449252</v>
       </c>
       <c r="E27" t="n">
         <v>156</v>
@@ -999,10 +999,10 @@
         <v>105.4791677019749</v>
       </c>
       <c r="C28" t="n">
-        <v>59.79104245783073</v>
+        <v>58.21079584101719</v>
       </c>
       <c r="D28" t="n">
-        <v>148.249612810537</v>
+        <v>145.9395442243124</v>
       </c>
       <c r="E28" t="n">
         <v>36</v>
@@ -1019,10 +1019,10 @@
         <v>95.55594779793185</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97972527034997</v>
+        <v>51.61905603620416</v>
       </c>
       <c r="D29" t="n">
-        <v>145.0723959439965</v>
+        <v>140.5733652788004</v>
       </c>
       <c r="E29" t="n">
         <v>132</v>
@@ -1039,10 +1039,10 @@
         <v>113.3157146699003</v>
       </c>
       <c r="C30" t="n">
-        <v>69.96603831052811</v>
+        <v>72.08007393400194</v>
       </c>
       <c r="D30" t="n">
-        <v>157.9214073474722</v>
+        <v>161.3448500608497</v>
       </c>
       <c r="E30" t="n">
         <v>36</v>
@@ -1117,19 +1117,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1468.908520046597</v>
+        <v>1468.90852004662</v>
       </c>
       <c r="C2" t="n">
-        <v>38.3263423776206</v>
+        <v>38.3263423776209</v>
       </c>
       <c r="D2" t="n">
-        <v>32.74964536881754</v>
+        <v>32.74964536881846</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9007110841752836</v>
+        <v>0.9007110841753596</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9007110841752836</v>
+        <v>0.9007110841753596</v>
       </c>
       <c r="G2" t="n">
         <v>1.576504299482276</v>
@@ -1143,25 +1143,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1374.408790328303</v>
+        <v>1374.408889137405</v>
       </c>
       <c r="C3" t="n">
-        <v>37.07301970878962</v>
+        <v>37.07302104141777</v>
       </c>
       <c r="D3" t="n">
-        <v>29.98679114009809</v>
+        <v>29.98679205174972</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6839651954477439</v>
+        <v>0.6839652060956602</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4194508263024161</v>
+        <v>0.4194508263032966</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4523011210806063</v>
+        <v>0.4523011272530546</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7777777777777786</v>
+        <v>0.7407407407407405</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACON4426052/OBACON4426052_Sell in_metricas.xlsx
+++ b/modelos/OBACON4426052/OBACON4426052_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44649</v>
       </c>
       <c r="B2" t="n">
-        <v>85.87682197668063</v>
+        <v>83.59049044554769</v>
       </c>
       <c r="C2" t="n">
-        <v>35.92153808624197</v>
+        <v>32.85961242085913</v>
       </c>
       <c r="D2" t="n">
-        <v>135.2517001383573</v>
+        <v>133.5734318230391</v>
       </c>
       <c r="E2" t="n">
         <v>84</v>
@@ -496,13 +496,13 @@
         <v>44656</v>
       </c>
       <c r="B3" t="n">
-        <v>85.641493496138</v>
+        <v>76.44127275190249</v>
       </c>
       <c r="C3" t="n">
-        <v>34.76063439564398</v>
+        <v>31.3145674504354</v>
       </c>
       <c r="D3" t="n">
-        <v>131.6132306752286</v>
+        <v>124.9849576500335</v>
       </c>
       <c r="E3" t="n">
         <v>96</v>
@@ -516,13 +516,13 @@
         <v>44663</v>
       </c>
       <c r="B4" t="n">
-        <v>138.6829884001202</v>
+        <v>141.9036713062816</v>
       </c>
       <c r="C4" t="n">
-        <v>91.3566816959928</v>
+        <v>93.93353994576489</v>
       </c>
       <c r="D4" t="n">
-        <v>186.0067303039176</v>
+        <v>191.903053955745</v>
       </c>
       <c r="E4" t="n">
         <v>84</v>
@@ -536,13 +536,13 @@
         <v>44670</v>
       </c>
       <c r="B5" t="n">
-        <v>174.8927683708286</v>
+        <v>192.1221244978323</v>
       </c>
       <c r="C5" t="n">
-        <v>123.7143751064617</v>
+        <v>142.7198312454483</v>
       </c>
       <c r="D5" t="n">
-        <v>223.4259100016214</v>
+        <v>246.2432369724118</v>
       </c>
       <c r="E5" t="n">
         <v>180</v>
@@ -556,13 +556,13 @@
         <v>44684</v>
       </c>
       <c r="B6" t="n">
-        <v>163.8221479572626</v>
+        <v>165.703808905695</v>
       </c>
       <c r="C6" t="n">
-        <v>117.937364827457</v>
+        <v>114.614697178479</v>
       </c>
       <c r="D6" t="n">
-        <v>211.5369407699588</v>
+        <v>213.7130559471601</v>
       </c>
       <c r="E6" t="n">
         <v>216</v>
@@ -576,13 +576,13 @@
         <v>44691</v>
       </c>
       <c r="B7" t="n">
-        <v>124.3050030357119</v>
+        <v>117.9693742701297</v>
       </c>
       <c r="C7" t="n">
-        <v>76.65936220175672</v>
+        <v>64.88763107344052</v>
       </c>
       <c r="D7" t="n">
-        <v>169.170252946415</v>
+        <v>167.6386315640482</v>
       </c>
       <c r="E7" t="n">
         <v>132</v>
@@ -596,13 +596,13 @@
         <v>44698</v>
       </c>
       <c r="B8" t="n">
-        <v>73.11391967998729</v>
+        <v>68.98362153205426</v>
       </c>
       <c r="C8" t="n">
-        <v>21.60480688514174</v>
+        <v>17.5157773568368</v>
       </c>
       <c r="D8" t="n">
-        <v>120.7099446750103</v>
+        <v>119.6845525293122</v>
       </c>
       <c r="E8" t="n">
         <v>72</v>
@@ -616,13 +616,13 @@
         <v>44705</v>
       </c>
       <c r="B9" t="n">
-        <v>50.95958828780947</v>
+        <v>52.39595187426269</v>
       </c>
       <c r="C9" t="n">
-        <v>4.246101933778789</v>
+        <v>5.525956472265511</v>
       </c>
       <c r="D9" t="n">
-        <v>100.6067027876134</v>
+        <v>102.7761691766218</v>
       </c>
       <c r="E9" t="n">
         <v>24</v>
@@ -636,13 +636,13 @@
         <v>44712</v>
       </c>
       <c r="B10" t="n">
-        <v>50.08040519898903</v>
+        <v>51.20011094684409</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.255752781361386</v>
+        <v>-1.001507942379743</v>
       </c>
       <c r="D10" t="n">
-        <v>99.4640109970648</v>
+        <v>98.52070034267784</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
@@ -656,13 +656,13 @@
         <v>44715</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.8406210767229751</v>
+        <v>5.519174799833415</v>
       </c>
       <c r="C11" t="n">
-        <v>-49.55561374683462</v>
+        <v>-44.92006851205641</v>
       </c>
       <c r="D11" t="n">
-        <v>45.87114218144529</v>
+        <v>52.31404971013006</v>
       </c>
       <c r="E11" t="n">
         <v>12</v>
@@ -676,13 +676,13 @@
         <v>44719</v>
       </c>
       <c r="B12" t="n">
-        <v>55.80330522989967</v>
+        <v>52.0490376686145</v>
       </c>
       <c r="C12" t="n">
-        <v>9.077524125820249</v>
+        <v>0.7274779580733994</v>
       </c>
       <c r="D12" t="n">
-        <v>101.4098669865877</v>
+        <v>101.8626661179039</v>
       </c>
       <c r="E12" t="n">
         <v>24</v>
@@ -696,13 +696,13 @@
         <v>44726</v>
       </c>
       <c r="B13" t="n">
-        <v>61.32064759757174</v>
+        <v>54.84433522127928</v>
       </c>
       <c r="C13" t="n">
-        <v>15.30353769638585</v>
+        <v>6.340680105842035</v>
       </c>
       <c r="D13" t="n">
-        <v>109.4101566391729</v>
+        <v>101.9374013265268</v>
       </c>
       <c r="E13" t="n">
         <v>36</v>
@@ -716,13 +716,13 @@
         <v>44733</v>
       </c>
       <c r="B14" t="n">
-        <v>59.20422662116182</v>
+        <v>57.06762459960389</v>
       </c>
       <c r="C14" t="n">
-        <v>12.65706290987723</v>
+        <v>5.34091481513029</v>
       </c>
       <c r="D14" t="n">
-        <v>106.9601539561139</v>
+        <v>102.6265314381942</v>
       </c>
       <c r="E14" t="n">
         <v>48</v>
@@ -736,13 +736,13 @@
         <v>44740</v>
       </c>
       <c r="B15" t="n">
-        <v>53.88971293401943</v>
+        <v>55.54397670913963</v>
       </c>
       <c r="C15" t="n">
-        <v>8.52499770650139</v>
+        <v>7.55855926675646</v>
       </c>
       <c r="D15" t="n">
-        <v>99.98174372624365</v>
+        <v>107.4842537416313</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
@@ -756,13 +756,13 @@
         <v>44747</v>
       </c>
       <c r="B16" t="n">
-        <v>39.69748579257279</v>
+        <v>39.68819638361422</v>
       </c>
       <c r="C16" t="n">
-        <v>-8.777473361425677</v>
+        <v>-7.928689468676023</v>
       </c>
       <c r="D16" t="n">
-        <v>83.78243876594961</v>
+        <v>85.90393108257697</v>
       </c>
       <c r="E16" t="n">
         <v>60</v>
@@ -776,13 +776,13 @@
         <v>44754</v>
       </c>
       <c r="B17" t="n">
-        <v>36.39924402124988</v>
+        <v>32.36730350268237</v>
       </c>
       <c r="C17" t="n">
-        <v>-10.96286315865982</v>
+        <v>-17.19570760935591</v>
       </c>
       <c r="D17" t="n">
-        <v>83.74080144654523</v>
+        <v>79.46552317304754</v>
       </c>
       <c r="E17" t="n">
         <v>84</v>
@@ -796,13 +796,13 @@
         <v>44761</v>
       </c>
       <c r="B18" t="n">
-        <v>51.10022974691868</v>
+        <v>46.10189097800166</v>
       </c>
       <c r="C18" t="n">
-        <v>4.889077556106711</v>
+        <v>-3.976706777719136</v>
       </c>
       <c r="D18" t="n">
-        <v>97.59025303938107</v>
+        <v>96.24531622436945</v>
       </c>
       <c r="E18" t="n">
         <v>36</v>
@@ -816,13 +816,13 @@
         <v>44768</v>
       </c>
       <c r="B19" t="n">
-        <v>67.43184063440779</v>
+        <v>66.98104725360997</v>
       </c>
       <c r="C19" t="n">
-        <v>17.44151025341848</v>
+        <v>18.84072988966555</v>
       </c>
       <c r="D19" t="n">
-        <v>114.7903830318447</v>
+        <v>112.7829723816304</v>
       </c>
       <c r="E19" t="n">
         <v>60</v>
@@ -836,13 +836,13 @@
         <v>44775</v>
       </c>
       <c r="B20" t="n">
-        <v>93.65091520157392</v>
+        <v>96.13372435302452</v>
       </c>
       <c r="C20" t="n">
-        <v>48.74918893184442</v>
+        <v>46.98451563646573</v>
       </c>
       <c r="D20" t="n">
-        <v>137.9695328939055</v>
+        <v>141.261769950742</v>
       </c>
       <c r="E20" t="n">
         <v>36</v>
@@ -856,13 +856,13 @@
         <v>44782</v>
       </c>
       <c r="B21" t="n">
-        <v>97.86916543393414</v>
+        <v>98.17713256269056</v>
       </c>
       <c r="C21" t="n">
-        <v>53.83824295086468</v>
+        <v>52.30654514905665</v>
       </c>
       <c r="D21" t="n">
-        <v>143.849127506457</v>
+        <v>143.7577133264659</v>
       </c>
       <c r="E21" t="n">
         <v>60</v>
@@ -876,13 +876,13 @@
         <v>44789</v>
       </c>
       <c r="B22" t="n">
-        <v>87.33337521766023</v>
+        <v>82.55612686249972</v>
       </c>
       <c r="C22" t="n">
-        <v>41.30419097426245</v>
+        <v>35.11063499580718</v>
       </c>
       <c r="D22" t="n">
-        <v>133.7551334821828</v>
+        <v>129.3749278090241</v>
       </c>
       <c r="E22" t="n">
         <v>60</v>
@@ -896,13 +896,13 @@
         <v>44796</v>
       </c>
       <c r="B23" t="n">
-        <v>68.54691188962606</v>
+        <v>61.72222162551183</v>
       </c>
       <c r="C23" t="n">
-        <v>25.18849317973276</v>
+        <v>15.39648025630831</v>
       </c>
       <c r="D23" t="n">
-        <v>112.771803543413</v>
+        <v>108.7074846278263</v>
       </c>
       <c r="E23" t="n">
         <v>84</v>
@@ -916,13 +916,13 @@
         <v>44803</v>
       </c>
       <c r="B24" t="n">
-        <v>62.06112229161003</v>
+        <v>59.34840153211552</v>
       </c>
       <c r="C24" t="n">
-        <v>15.58228398385973</v>
+        <v>9.945127615427197</v>
       </c>
       <c r="D24" t="n">
-        <v>106.6913595417027</v>
+        <v>107.0621338481104</v>
       </c>
       <c r="E24" t="n">
         <v>84</v>
@@ -936,13 +936,13 @@
         <v>44806</v>
       </c>
       <c r="B25" t="n">
-        <v>19.34133033908606</v>
+        <v>25.90894482736146</v>
       </c>
       <c r="C25" t="n">
-        <v>-27.45869442314808</v>
+        <v>-20.28305592758547</v>
       </c>
       <c r="D25" t="n">
-        <v>63.74979639153378</v>
+        <v>72.73167452505395</v>
       </c>
       <c r="E25" t="n">
         <v>72</v>
@@ -956,13 +956,13 @@
         <v>44810</v>
       </c>
       <c r="B26" t="n">
-        <v>69.11138833962721</v>
+        <v>71.94491519754182</v>
       </c>
       <c r="C26" t="n">
-        <v>22.21919469271824</v>
+        <v>21.82067046747817</v>
       </c>
       <c r="D26" t="n">
-        <v>112.6718410197589</v>
+        <v>117.5167778344064</v>
       </c>
       <c r="E26" t="n">
         <v>60</v>
@@ -976,13 +976,13 @@
         <v>44817</v>
       </c>
       <c r="B27" t="n">
-        <v>85.65790282206318</v>
+        <v>85.66137403336907</v>
       </c>
       <c r="C27" t="n">
-        <v>42.783536748172</v>
+        <v>38.59026116834061</v>
       </c>
       <c r="D27" t="n">
-        <v>135.1694624449252</v>
+        <v>131.1062574183391</v>
       </c>
       <c r="E27" t="n">
         <v>156</v>
@@ -996,13 +996,13 @@
         <v>44824</v>
       </c>
       <c r="B28" t="n">
-        <v>105.4791677019749</v>
+        <v>102.24699111978</v>
       </c>
       <c r="C28" t="n">
-        <v>58.21079584101719</v>
+        <v>54.62060966921758</v>
       </c>
       <c r="D28" t="n">
-        <v>145.9395442243124</v>
+        <v>148.5761395208961</v>
       </c>
       <c r="E28" t="n">
         <v>36</v>
@@ -1016,13 +1016,13 @@
         <v>44831</v>
       </c>
       <c r="B29" t="n">
-        <v>95.55594779793185</v>
+        <v>92.97442276214623</v>
       </c>
       <c r="C29" t="n">
-        <v>51.61905603620416</v>
+        <v>43.16287907414099</v>
       </c>
       <c r="D29" t="n">
-        <v>140.5733652788004</v>
+        <v>141.4627710095226</v>
       </c>
       <c r="E29" t="n">
         <v>132</v>
@@ -1036,13 +1036,13 @@
         <v>44838</v>
       </c>
       <c r="B30" t="n">
-        <v>113.3157146699003</v>
+        <v>116.626047745897</v>
       </c>
       <c r="C30" t="n">
-        <v>72.08007393400194</v>
+        <v>68.38592889714992</v>
       </c>
       <c r="D30" t="n">
-        <v>161.3448500608497</v>
+        <v>161.7105045238811</v>
       </c>
       <c r="E30" t="n">
         <v>36</v>
@@ -1117,25 +1117,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1468.90852004662</v>
+        <v>1083.193231101162</v>
       </c>
       <c r="C2" t="n">
-        <v>38.3263423776209</v>
+        <v>32.91190105571481</v>
       </c>
       <c r="D2" t="n">
-        <v>32.74964536881846</v>
+        <v>26.28594018640256</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9007110841753596</v>
+        <v>0.5901111553724865</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9007110841753596</v>
+        <v>0.5901111553724865</v>
       </c>
       <c r="G2" t="n">
-        <v>1.576504299482276</v>
+        <v>0.8406818214466276</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1143,22 +1143,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1374.408889137405</v>
+        <v>1429.566114856487</v>
       </c>
       <c r="C3" t="n">
-        <v>37.07302104141777</v>
+        <v>37.80960347393882</v>
       </c>
       <c r="D3" t="n">
-        <v>29.98679205174972</v>
+        <v>31.01645263526422</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6839652060956602</v>
+        <v>0.6892017044173766</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4194508263032966</v>
+        <v>0.3385300602730963</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4523011272530546</v>
+        <v>0.4616773761342943</v>
       </c>
       <c r="H3" t="n">
         <v>0.7407407407407405</v>

--- a/modelos/OBACON4426052/OBACON4426052_Sell in_metricas.xlsx
+++ b/modelos/OBACON4426052/OBACON4426052_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44649</v>
       </c>
       <c r="B2" t="n">
-        <v>83.59049044554769</v>
+        <v>85.87682197651796</v>
       </c>
       <c r="C2" t="n">
-        <v>32.85961242085913</v>
+        <v>40.58248598901847</v>
       </c>
       <c r="D2" t="n">
-        <v>133.5734318230391</v>
+        <v>136.7309745917369</v>
       </c>
       <c r="E2" t="n">
         <v>84</v>
@@ -496,13 +496,13 @@
         <v>44656</v>
       </c>
       <c r="B3" t="n">
-        <v>76.44127275190249</v>
+        <v>85.64149349615305</v>
       </c>
       <c r="C3" t="n">
-        <v>31.3145674504354</v>
+        <v>32.97847946244444</v>
       </c>
       <c r="D3" t="n">
-        <v>124.9849576500335</v>
+        <v>131.9209860403515</v>
       </c>
       <c r="E3" t="n">
         <v>96</v>
@@ -516,13 +516,13 @@
         <v>44663</v>
       </c>
       <c r="B4" t="n">
-        <v>141.9036713062816</v>
+        <v>138.6829644480601</v>
       </c>
       <c r="C4" t="n">
-        <v>93.93353994576489</v>
+        <v>85.03877054719747</v>
       </c>
       <c r="D4" t="n">
-        <v>191.903053955745</v>
+        <v>185.8477568740912</v>
       </c>
       <c r="E4" t="n">
         <v>84</v>
@@ -536,13 +536,13 @@
         <v>44670</v>
       </c>
       <c r="B5" t="n">
-        <v>192.1221244978323</v>
+        <v>174.8927685621157</v>
       </c>
       <c r="C5" t="n">
-        <v>142.7198312454483</v>
+        <v>126.7367277349016</v>
       </c>
       <c r="D5" t="n">
-        <v>246.2432369724118</v>
+        <v>227.2142297569974</v>
       </c>
       <c r="E5" t="n">
         <v>180</v>
@@ -556,13 +556,13 @@
         <v>44684</v>
       </c>
       <c r="B6" t="n">
-        <v>165.703808905695</v>
+        <v>163.8221479572663</v>
       </c>
       <c r="C6" t="n">
-        <v>114.614697178479</v>
+        <v>115.9091610675143</v>
       </c>
       <c r="D6" t="n">
-        <v>213.7130559471601</v>
+        <v>210.3006982257503</v>
       </c>
       <c r="E6" t="n">
         <v>216</v>
@@ -576,13 +576,13 @@
         <v>44691</v>
       </c>
       <c r="B7" t="n">
-        <v>117.9693742701297</v>
+        <v>124.3050030355803</v>
       </c>
       <c r="C7" t="n">
-        <v>64.88763107344052</v>
+        <v>76.78314144134114</v>
       </c>
       <c r="D7" t="n">
-        <v>167.6386315640482</v>
+        <v>171.7170933173476</v>
       </c>
       <c r="E7" t="n">
         <v>132</v>
@@ -596,13 +596,13 @@
         <v>44698</v>
       </c>
       <c r="B8" t="n">
-        <v>68.98362153205426</v>
+        <v>73.11391967998617</v>
       </c>
       <c r="C8" t="n">
-        <v>17.5157773568368</v>
+        <v>26.53199667047474</v>
       </c>
       <c r="D8" t="n">
-        <v>119.6845525293122</v>
+        <v>120.4913876492538</v>
       </c>
       <c r="E8" t="n">
         <v>72</v>
@@ -616,13 +616,13 @@
         <v>44705</v>
       </c>
       <c r="B9" t="n">
-        <v>52.39595187426269</v>
+        <v>50.95958818623143</v>
       </c>
       <c r="C9" t="n">
-        <v>5.525956472265511</v>
+        <v>1.86022671821242</v>
       </c>
       <c r="D9" t="n">
-        <v>102.7761691766218</v>
+        <v>98.00923402369298</v>
       </c>
       <c r="E9" t="n">
         <v>24</v>
@@ -636,13 +636,13 @@
         <v>44712</v>
       </c>
       <c r="B10" t="n">
-        <v>51.20011094684409</v>
+        <v>50.08040519926422</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.001507942379743</v>
+        <v>1.677431275202155</v>
       </c>
       <c r="D10" t="n">
-        <v>98.52070034267784</v>
+        <v>98.43507157451324</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
@@ -656,13 +656,13 @@
         <v>44715</v>
       </c>
       <c r="B11" t="n">
-        <v>5.519174799833415</v>
+        <v>-0.840621076723437</v>
       </c>
       <c r="C11" t="n">
-        <v>-44.92006851205641</v>
+        <v>-47.04188978640178</v>
       </c>
       <c r="D11" t="n">
-        <v>52.31404971013006</v>
+        <v>46.66631267117153</v>
       </c>
       <c r="E11" t="n">
         <v>12</v>
@@ -676,13 +676,13 @@
         <v>44719</v>
       </c>
       <c r="B12" t="n">
-        <v>52.0490376686145</v>
+        <v>55.80330522989922</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7274779580733994</v>
+        <v>8.475259093756307</v>
       </c>
       <c r="D12" t="n">
-        <v>101.8626661179039</v>
+        <v>107.110431226504</v>
       </c>
       <c r="E12" t="n">
         <v>24</v>
@@ -696,13 +696,13 @@
         <v>44726</v>
       </c>
       <c r="B13" t="n">
-        <v>54.84433522127928</v>
+        <v>61.32064764221292</v>
       </c>
       <c r="C13" t="n">
-        <v>6.340680105842035</v>
+        <v>14.09058119613059</v>
       </c>
       <c r="D13" t="n">
-        <v>101.9374013265268</v>
+        <v>105.7614142820982</v>
       </c>
       <c r="E13" t="n">
         <v>36</v>
@@ -716,13 +716,13 @@
         <v>44733</v>
       </c>
       <c r="B14" t="n">
-        <v>57.06762459960389</v>
+        <v>59.20422662116182</v>
       </c>
       <c r="C14" t="n">
-        <v>5.34091481513029</v>
+        <v>11.23169387391103</v>
       </c>
       <c r="D14" t="n">
-        <v>102.6265314381942</v>
+        <v>106.6712536491947</v>
       </c>
       <c r="E14" t="n">
         <v>48</v>
@@ -736,13 +736,13 @@
         <v>44740</v>
       </c>
       <c r="B15" t="n">
-        <v>55.54397670913963</v>
+        <v>53.88971308939445</v>
       </c>
       <c r="C15" t="n">
-        <v>7.55855926675646</v>
+        <v>5.369643874823826</v>
       </c>
       <c r="D15" t="n">
-        <v>107.4842537416313</v>
+        <v>101.2340832797949</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
@@ -756,13 +756,13 @@
         <v>44747</v>
       </c>
       <c r="B16" t="n">
-        <v>39.68819638361422</v>
+        <v>39.6974857933365</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.928689468676023</v>
+        <v>-5.823358652285549</v>
       </c>
       <c r="D16" t="n">
-        <v>85.90393108257697</v>
+        <v>85.46769913128553</v>
       </c>
       <c r="E16" t="n">
         <v>60</v>
@@ -776,13 +776,13 @@
         <v>44754</v>
       </c>
       <c r="B17" t="n">
-        <v>32.36730350268237</v>
+        <v>36.3992440212747</v>
       </c>
       <c r="C17" t="n">
-        <v>-17.19570760935591</v>
+        <v>-9.664824914779313</v>
       </c>
       <c r="D17" t="n">
-        <v>79.46552317304754</v>
+        <v>86.06916372256326</v>
       </c>
       <c r="E17" t="n">
         <v>84</v>
@@ -796,13 +796,13 @@
         <v>44761</v>
       </c>
       <c r="B18" t="n">
-        <v>46.10189097800166</v>
+        <v>51.10022974678181</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.976706777719136</v>
+        <v>5.97210193978811</v>
       </c>
       <c r="D18" t="n">
-        <v>96.24531622436945</v>
+        <v>95.89577762451954</v>
       </c>
       <c r="E18" t="n">
         <v>36</v>
@@ -816,13 +816,13 @@
         <v>44768</v>
       </c>
       <c r="B19" t="n">
-        <v>66.98104725360997</v>
+        <v>67.43184063439159</v>
       </c>
       <c r="C19" t="n">
-        <v>18.84072988966555</v>
+        <v>18.25627993557702</v>
       </c>
       <c r="D19" t="n">
-        <v>112.7829723816304</v>
+        <v>110.5860345998845</v>
       </c>
       <c r="E19" t="n">
         <v>60</v>
@@ -836,13 +836,13 @@
         <v>44775</v>
       </c>
       <c r="B20" t="n">
-        <v>96.13372435302452</v>
+        <v>93.6509152015753</v>
       </c>
       <c r="C20" t="n">
-        <v>46.98451563646573</v>
+        <v>44.98339811248586</v>
       </c>
       <c r="D20" t="n">
-        <v>141.261769950742</v>
+        <v>138.3062867890224</v>
       </c>
       <c r="E20" t="n">
         <v>36</v>
@@ -856,13 +856,13 @@
         <v>44782</v>
       </c>
       <c r="B21" t="n">
-        <v>98.17713256269056</v>
+        <v>97.86916543393392</v>
       </c>
       <c r="C21" t="n">
-        <v>52.30654514905665</v>
+        <v>49.48456985690753</v>
       </c>
       <c r="D21" t="n">
-        <v>143.7577133264659</v>
+        <v>142.2456996538478</v>
       </c>
       <c r="E21" t="n">
         <v>60</v>
@@ -876,13 +876,13 @@
         <v>44789</v>
       </c>
       <c r="B22" t="n">
-        <v>82.55612686249972</v>
+        <v>87.3333752176603</v>
       </c>
       <c r="C22" t="n">
-        <v>35.11063499580718</v>
+        <v>44.05625365860102</v>
       </c>
       <c r="D22" t="n">
-        <v>129.3749278090241</v>
+        <v>134.0248709759851</v>
       </c>
       <c r="E22" t="n">
         <v>60</v>
@@ -896,13 +896,13 @@
         <v>44796</v>
       </c>
       <c r="B23" t="n">
-        <v>61.72222162551183</v>
+        <v>68.36889853794932</v>
       </c>
       <c r="C23" t="n">
-        <v>15.39648025630831</v>
+        <v>21.59846307439616</v>
       </c>
       <c r="D23" t="n">
-        <v>108.7074846278263</v>
+        <v>109.5124065028509</v>
       </c>
       <c r="E23" t="n">
         <v>84</v>
@@ -916,13 +916,13 @@
         <v>44803</v>
       </c>
       <c r="B24" t="n">
-        <v>59.34840153211552</v>
+        <v>62.06112226266682</v>
       </c>
       <c r="C24" t="n">
-        <v>9.945127615427197</v>
+        <v>17.2998183136246</v>
       </c>
       <c r="D24" t="n">
-        <v>107.0621338481104</v>
+        <v>107.8161167785108</v>
       </c>
       <c r="E24" t="n">
         <v>84</v>
@@ -936,13 +936,13 @@
         <v>44806</v>
       </c>
       <c r="B25" t="n">
-        <v>25.90894482736146</v>
+        <v>19.35939903388455</v>
       </c>
       <c r="C25" t="n">
-        <v>-20.28305592758547</v>
+        <v>-23.54685252240984</v>
       </c>
       <c r="D25" t="n">
-        <v>72.73167452505395</v>
+        <v>63.77378349914125</v>
       </c>
       <c r="E25" t="n">
         <v>72</v>
@@ -956,13 +956,13 @@
         <v>44810</v>
       </c>
       <c r="B26" t="n">
-        <v>71.94491519754182</v>
+        <v>69.13541509744587</v>
       </c>
       <c r="C26" t="n">
-        <v>21.82067046747817</v>
+        <v>25.05333444221701</v>
       </c>
       <c r="D26" t="n">
-        <v>117.5167778344064</v>
+        <v>113.3085951261699</v>
       </c>
       <c r="E26" t="n">
         <v>60</v>
@@ -976,13 +976,13 @@
         <v>44817</v>
       </c>
       <c r="B27" t="n">
-        <v>85.66137403336907</v>
+        <v>85.86771729509239</v>
       </c>
       <c r="C27" t="n">
-        <v>38.59026116834061</v>
+        <v>39.1234764908039</v>
       </c>
       <c r="D27" t="n">
-        <v>131.1062574183391</v>
+        <v>132.0646355826894</v>
       </c>
       <c r="E27" t="n">
         <v>156</v>
@@ -996,13 +996,13 @@
         <v>44824</v>
       </c>
       <c r="B28" t="n">
-        <v>102.24699111978</v>
+        <v>105.8367785840353</v>
       </c>
       <c r="C28" t="n">
-        <v>54.62060966921758</v>
+        <v>55.86994443442956</v>
       </c>
       <c r="D28" t="n">
-        <v>148.5761395208961</v>
+        <v>148.3469551336412</v>
       </c>
       <c r="E28" t="n">
         <v>36</v>
@@ -1016,13 +1016,13 @@
         <v>44831</v>
       </c>
       <c r="B29" t="n">
-        <v>92.97442276214623</v>
+        <v>95.55594779367604</v>
       </c>
       <c r="C29" t="n">
-        <v>43.16287907414099</v>
+        <v>46.24473361060276</v>
       </c>
       <c r="D29" t="n">
-        <v>141.4627710095226</v>
+        <v>141.9651816322394</v>
       </c>
       <c r="E29" t="n">
         <v>132</v>
@@ -1036,13 +1036,13 @@
         <v>44838</v>
       </c>
       <c r="B30" t="n">
-        <v>116.626047745897</v>
+        <v>113.3159905596986</v>
       </c>
       <c r="C30" t="n">
-        <v>68.38592889714992</v>
+        <v>69.28344004633604</v>
       </c>
       <c r="D30" t="n">
-        <v>161.7105045238811</v>
+        <v>155.2806453237782</v>
       </c>
       <c r="E30" t="n">
         <v>36</v>
@@ -1117,25 +1117,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1083.193231101162</v>
+        <v>1467.957209854895</v>
       </c>
       <c r="C2" t="n">
-        <v>32.91190105571481</v>
+        <v>38.31392971041857</v>
       </c>
       <c r="D2" t="n">
-        <v>26.28594018640256</v>
+        <v>32.74061102141944</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5901111553724865</v>
+        <v>0.9005856071281673</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5901111553724865</v>
+        <v>0.9005856071281673</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8406818214466276</v>
+        <v>1.57619250479736</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -1143,25 +1143,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1429.566114856487</v>
+        <v>1375.385155811357</v>
       </c>
       <c r="C3" t="n">
-        <v>37.80960347393882</v>
+        <v>37.08618551174219</v>
       </c>
       <c r="D3" t="n">
-        <v>31.01645263526422</v>
+        <v>29.99975828863484</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6892017044173766</v>
+        <v>0.6843768988673506</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3385300602730963</v>
+        <v>0.4194508262994947</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4616773761342943</v>
+        <v>0.4524213876584335</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7407407407407405</v>
+        <v>0.7777777777777786</v>
       </c>
     </row>
   </sheetData>
